--- a/week3/data/livescore.xlsx
+++ b/week3/data/livescore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,113 +436,633 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>hasNextPage</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>roundId</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>player1Id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>player2Id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tournamentId</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>match_winner</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>player1.id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>player1.name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>player1.countryAcr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>player2.id</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>player2.name</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>player2.countryAcr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{'id': 1104096, 'date': '2024-07-29T00:00:00.000Z', 'roundId': 5, 'player1Id': 5992, 'player2Id': 677, 'tournamentId': 19400, 'match_winner': 5992, 'result': '6-1 6-4', 'player1': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}, 'player2': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}}</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
+      <c r="A2" t="n">
+        <v>1104096</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-07-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E2" t="n">
+        <v>677</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19400</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5992</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6-1 6-4</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5992</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>677</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{'id': 914314, 'date': '2022-05-31T00:00:00.000Z', 'roundId': 9, 'player1Id': 677, 'player2Id': 5992, 'tournamentId': 17563, 'match_winner': 677, 'result': '6-2 4-6 6-2 7-6(4)', 'player1': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}, 'player2': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}}</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>914314</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-05-31T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>677</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5992</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17563</v>
+      </c>
+      <c r="G3" t="n">
+        <v>677</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6-2 4-6 6-2 7-6(4)</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>677</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5992</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{'id': 867046, 'date': '2021-06-11T00:00:00.000Z', 'roundId': 10, 'player1Id': 5992, 'player2Id': 677, 'tournamentId': 16911, 'match_winner': 5992, 'result': '3-6 6-3 7-6(4) 6-2', 'player1': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}, 'player2': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}}</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
+      <c r="A4" t="n">
+        <v>867046</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-06-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E4" t="n">
+        <v>677</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16911</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5992</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3-6 6-3 7-6(4) 6-2</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5992</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>677</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{'id': 866831, 'date': '2021-05-16T00:00:00.000Z', 'roundId': 12, 'player1Id': 677, 'player2Id': 5992, 'tournamentId': 16908, 'match_winner': 677, 'result': '7-5 1-6 6-3', 'player1': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}, 'player2': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}}</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+      <c r="A5" t="n">
+        <v>866831</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-05-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>677</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5992</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16908</v>
+      </c>
+      <c r="G5" t="n">
+        <v>677</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7-5 1-6 6-3</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>677</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>5992</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{'id': 842741, 'date': '2020-10-11T00:00:00.000Z', 'roundId': 12, 'player1Id': 677, 'player2Id': 5992, 'tournamentId': 16462, 'match_winner': 677, 'result': '6-0 6-2 7-5', 'player1': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}, 'player2': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}}</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
+      <c r="A6" t="n">
+        <v>842741</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-10-11T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>677</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5992</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16462</v>
+      </c>
+      <c r="G6" t="n">
+        <v>677</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6-0 6-2 7-5</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>677</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>5992</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{'id': 841258, 'date': '2020-01-12T00:00:00.000Z', 'roundId': 12, 'player1Id': 5992, 'player2Id': 677, 'tournamentId': 16431, 'match_winner': 5992, 'result': '6-2 7-6(4)', 'player1': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}, 'player2': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}}</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
+      <c r="A7" t="n">
+        <v>841258</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-01-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E7" t="n">
+        <v>677</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16431</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5992</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6-2 7-6(4)</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5992</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>677</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{'id': 789522, 'date': '2019-05-19T00:00:00.000Z', 'roundId': 12, 'player1Id': 677, 'player2Id': 5992, 'tournamentId': 15630, 'match_winner': 677, 'result': '6-0 4-6 6-1', 'player1': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}, 'player2': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}}</t>
-        </is>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
+      <c r="A8" t="n">
+        <v>789522</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2019-05-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>677</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5992</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15630</v>
+      </c>
+      <c r="G8" t="n">
+        <v>677</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6-0 4-6 6-1</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>677</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>5992</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{'id': 787591, 'date': '2019-01-27T00:00:00.000Z', 'roundId': 12, 'player1Id': 5992, 'player2Id': 677, 'tournamentId': 15606, 'match_winner': 5992, 'result': '6-3 6-2 6-3', 'player1': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}, 'player2': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}}</t>
-        </is>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
+      <c r="A9" t="n">
+        <v>787591</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2019-01-27T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>677</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15606</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5992</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6-3 6-2 6-3</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5992</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>677</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{'id': 722754, 'date': '2018-07-14T00:00:00.000Z', 'roundId': 10, 'player1Id': 5992, 'player2Id': 677, 'tournamentId': 14741, 'match_winner': 5992, 'result': '6-4 3-6 7-6(9) 3-6 10-8', 'player1': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}, 'player2': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}}</t>
-        </is>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
+      <c r="A10" t="n">
+        <v>722754</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2018-07-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E10" t="n">
+        <v>677</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14741</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5992</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6-4 3-6 7-6(9) 3-6 10-8</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5992</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>677</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{'id': 721860, 'date': '2018-05-19T00:00:00.000Z', 'roundId': 10, 'player1Id': 677, 'player2Id': 5992, 'tournamentId': 14730, 'match_winner': 677, 'result': '7-6(4) 6-3', 'player1': {'id': 677, 'name': 'Rafael Nadal', 'countryAcr': 'ESP'}, 'player2': {'id': 5992, 'name': 'Novak Djokovic', 'countryAcr': 'SRB'}}</t>
-        </is>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
+      <c r="A11" t="n">
+        <v>721860</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2018-05-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>677</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5992</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14730</v>
+      </c>
+      <c r="G11" t="n">
+        <v>677</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7-6(4) 6-3</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>677</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>5992</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Novak Djokovic</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
     </row>
   </sheetData>
